--- a/biology/Médecine/Nutriment_essentiel/Nutriment_essentiel.xlsx
+++ b/biology/Médecine/Nutriment_essentiel/Nutriment_essentiel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un nutriment essentiel est un nutriment nécessaire au bon fonctionnement d'un organisme vivant. Un nutriment indispensable est un nutriment essentiel qui ne peut pas être synthétisé de novo par l'organisme en quantité suffisante pour couvrir son utilisation métabolique et assurer ainsi le bon fonctionnement. 
 </t>
@@ -511,7 +523,9 @@
           <t>Catégories</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des nutriments sont essentiels, dans la mesure où on leur connaît une fonction biologique obligatoire. Par conséquent, quel que soit le régime alimentaire, il doit contenir l'ensemble des nutriments essentiels, afin de demeurer en bonne santé. En revanche, un plus faible nombre de nutriments sont indispensables.
 Plusieurs nutriments essentiels et indispensables, tels que la vitamine C, sont aussi parfois qualifiés de phytonutriments, parce qu'ils  sont présents dans des plantes. Il ne faut pas confondre ceci avec l'usage plus commun du mot phytonutriments, qui indique des substances dans des suppléments alimentaires dont la nécessité n'est pas connue, tels que des flavonoïdes.
@@ -548,7 +562,9 @@
           <t>Liste des nutriments essentiels chez l'homme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Acides gras indispensables :
 Acide linoléique (acide gras oméga-6 avec la plus courte chaîne d'atomes de carbone)
